--- a/tests/01_Data_Search_Course.xlsx
+++ b/tests/01_Data_Search_Course.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{452A4F76-7E27-429A-BB56-907A3F59015A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9794527-FB7E-40AF-95F6-666997A9317E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,12 +11,25 @@
     <sheet name="ตารางที่ TC01-EC" sheetId="1" r:id="rId1"/>
     <sheet name="ตารางที่ TC01-TC" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="66">
   <si>
     <t>TCID</t>
   </si>
@@ -36,16 +49,10 @@
     <t>การป้องกันอันตรายจากรังสี</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
     <t>จะต้องใส่อุปกรณ์ป้องกัน</t>
   </si>
   <si>
     <t>ไม่พบข้อมูล</t>
-  </si>
-  <si>
-    <t>False</t>
   </si>
   <si>
     <t>chupong@mju.ac.th</t>
@@ -243,12 +250,39 @@
   <si>
     <t>5.4 Close Browser</t>
   </si>
+  <si>
+    <t xml:space="preserve">Result P/F </t>
+  </si>
+  <si>
+    <t>คิดเป็น %</t>
+  </si>
+  <si>
+    <t>Pass :</t>
+  </si>
+  <si>
+    <t>Fail :</t>
+  </si>
+  <si>
+    <t>Sum :</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Revise</t>
+  </si>
+  <si>
+    <t>Revise Manual Testing</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,13 +292,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
       <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
@@ -308,7 +335,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -345,8 +372,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -468,72 +501,167 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="9" tint="0.59996337778862885"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="5" tint="0.59996337778862885"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -809,10 +937,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E14" sqref="C14:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -824,7 +952,7 @@
     <col min="5" max="5" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -834,97 +962,232 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="F1" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>1</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="E3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3">
-        <v>2</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="D4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="E4" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8">
+        <v>30000</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="3">
-        <v>3</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="D6" s="2">
+        <v>5</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="30"/>
+      <c r="E9" s="25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="27">
+        <f>COUNTIF(E2:E6, "Pass")</f>
+        <v>1</v>
+      </c>
+      <c r="E10" s="27">
+        <f>D10*100/D12</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="27">
+        <f>COUNTIF(E2:E6, "Fail")</f>
         <v>4</v>
       </c>
-      <c r="B5" s="9">
-        <v>30000</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="3">
-        <v>4</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="E11" s="27">
+        <f>D11*100/D12</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="27">
+        <f>SUM(D10:D11)</f>
         <v>5</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="E12" s="27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="31"/>
+      <c r="E14" s="25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="27">
+        <f>COUNTIF(F2:F6,"Pass")</f>
         <v>5</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>9</v>
+      <c r="E15" s="28">
+        <f>D15*100/D17</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="27">
+        <f>COUNTIF(F2:F6, "Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="28">
+        <f>D16*100/D17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="27">
+        <f>SUM(D15:D16)</f>
+        <v>5</v>
+      </c>
+      <c r="E17" s="28">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C14:D14"/>
+  </mergeCells>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",E2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
@@ -948,305 +1211,305 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="F1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="11"/>
+    </row>
+    <row r="2" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="C2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="D2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="14"/>
+    </row>
+    <row r="3" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="16"/>
+      <c r="F4" s="17"/>
+    </row>
+    <row r="5" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="18"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="19"/>
+      <c r="F5" s="20"/>
+    </row>
+    <row r="6" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="21">
         <v>2</v>
       </c>
-      <c r="G1" s="12"/>
-    </row>
-    <row r="2" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
-        <v>1</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="15"/>
-    </row>
-    <row r="3" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="17" t="s">
+      <c r="B6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="18"/>
-    </row>
-    <row r="5" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20" t="s">
+      <c r="D6" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="21"/>
-    </row>
-    <row r="6" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22">
-        <v>2</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="14" t="s">
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+    </row>
+    <row r="7" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="22"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D7" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-    </row>
-    <row r="7" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17" t="s">
+      <c r="E7" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="F7" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="22"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="D8" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17" t="s">
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+    </row>
+    <row r="9" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="23"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D9" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+    </row>
+    <row r="10" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="21">
+        <v>3</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-    </row>
-    <row r="9" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20" t="s">
+      <c r="D10" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-    </row>
-    <row r="10" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22">
-        <v>3</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="14" t="s">
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+    </row>
+    <row r="11" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="22"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D11" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-    </row>
-    <row r="11" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17" t="s">
+      <c r="E11" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="F11" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="22"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="D12" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17" t="s">
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+    </row>
+    <row r="13" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="23"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D13" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+    </row>
+    <row r="14" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="21">
+        <v>4</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-    </row>
-    <row r="13" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20" t="s">
+      <c r="D14" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-    </row>
-    <row r="14" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="22">
-        <v>4</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="14" t="s">
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+    </row>
+    <row r="15" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="22"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D15" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-    </row>
-    <row r="15" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17" t="s">
+      <c r="E15" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="F15" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="22"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="D16" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17" t="s">
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+    </row>
+    <row r="17" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="23"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D17" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+    </row>
+    <row r="18" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="21">
+        <v>5</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-    </row>
-    <row r="17" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20" t="s">
+      <c r="D18" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-    </row>
-    <row r="18" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="22">
-        <v>5</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="14" t="s">
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+    </row>
+    <row r="19" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="22"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D19" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-    </row>
-    <row r="19" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17" t="s">
+      <c r="E19" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="F19" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="22"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="D20" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="F19" s="17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="23"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17" t="s">
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+    </row>
+    <row r="21" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="23"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-    </row>
-    <row r="21" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="24"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
+      <c r="D21" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
     </row>
   </sheetData>
   <hyperlinks>
